--- a/code/static/mmm.xlsx
+++ b/code/static/mmm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\09060.gary.wu\code\FlaskRESTfulAPI\code\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B870EA11-C9D4-4353-B792-3144C428B511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E95CA44-8342-422A-B7E4-FECFEA161E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27690" yWindow="5610" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Step1 - Input Data" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>Company Ticker Symbol</t>
   </si>
   <si>
-    <t>mmm</t>
+    <t>MMM</t>
   </si>
   <si>
     <t>Personal Required Rate of Return</t>
   </si>
   <si>
-    <t>5.87%</t>
+    <t>5.88%</t>
   </si>
   <si>
     <t>Shares Outstanding (M)</t>
@@ -138,7 +138,7 @@
     <t>Growth Rate</t>
   </si>
   <si>
-    <t>0.45%</t>
+    <t>0.5%</t>
   </si>
   <si>
     <t>Discounted Free Cash Flow Valuation</t>
@@ -1138,15 +1138,15 @@
       </c>
       <c r="F10" s="14">
         <f>F12*$C$4</f>
-        <v>4895.0222346729943</v>
+        <v>4897.4587813303724</v>
       </c>
       <c r="G10" s="14">
         <f>G12*$C$4</f>
-        <v>4917.0498347290222</v>
+        <v>4921.9460752370242</v>
       </c>
       <c r="H10" s="14">
         <f>G10*(1+B16)/(B15-B16)</f>
-        <v>129596.6623106874</v>
+        <v>129391.3658954063</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1169,11 +1169,11 @@
       </c>
       <c r="F11" s="17">
         <f>E11*(1+$C$5)</f>
-        <v>30305.764999999999</v>
+        <v>30320.85</v>
       </c>
       <c r="G11" s="17">
         <f>F11*(1+$C$5)</f>
-        <v>30442.140942499998</v>
+        <v>30472.454249999995</v>
       </c>
       <c r="H11" s="19"/>
     </row>
@@ -1199,11 +1199,11 @@
       </c>
       <c r="F12" s="21">
         <f>F11*$C$3</f>
-        <v>4747.7230769056414</v>
+        <v>4750.0863039225187</v>
       </c>
       <c r="G12" s="21">
         <f>G11*$C$3</f>
-        <v>4769.0878307517169</v>
+        <v>4773.8367354421307</v>
       </c>
       <c r="H12" s="19"/>
     </row>
@@ -1250,15 +1250,15 @@
       </c>
       <c r="F14" s="14">
         <f>F10/F13</f>
-        <v>4113.4640627504159</v>
+        <v>4115.511580949893</v>
       </c>
       <c r="G14" s="14">
         <f>G10/G13</f>
-        <v>3902.4205037531924</v>
+        <v>3906.3064089182731</v>
       </c>
       <c r="H14" s="14">
         <f>H10/H13</f>
-        <v>102854.49389737095</v>
+        <v>102691.56023444944</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B15" s="29" t="str">
         <f>'Step1 - Input Data'!B4</f>
-        <v>5.87%</v>
+        <v>5.88%</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B17" s="14">
         <f>SUM(D14:H14)</f>
-        <v>119762.23245528103</v>
+        <v>119605.23221572409</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B19" s="32">
         <f>B17/B18</f>
-        <v>208.20972262740094</v>
+        <v>207.93677367128663</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">

--- a/code/static/mmm.xlsx
+++ b/code/static/mmm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\09060.gary.wu\code\FlaskRESTfulAPI\code\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E95CA44-8342-422A-B7E4-FECFEA161E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26CC176-60B9-41F0-AA0D-101E01ADC218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
